--- a/canvas-clock/模板——教学大纲.xlsx
+++ b/canvas-clock/模板——教学大纲.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22395" windowHeight="10410" tabRatio="500"/>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -74,115 +74,10 @@
     <t>课程介绍</t>
   </si>
   <si>
-    <t>介绍课程目标和学习内容</t>
-  </si>
-  <si>
-    <t>通过详细的细分教学，让学生理解LAMP环境各个组件之间的关系与作用，并能掌握从无到有的在UbuntuServer服务器操作系统下搭建LAMP环境、配置虚拟主机、数据库远程维护等常见的服务器搭建维护技能。</t>
-  </si>
-  <si>
-    <t>概念介绍</t>
-  </si>
-  <si>
-    <t>了解ubuntu操作系统</t>
-  </si>
-  <si>
-    <t>介绍ubuntu操作系统在Linux家族中的衍生史以及特点等。</t>
-  </si>
-  <si>
-    <t>LAMP概念详解</t>
-  </si>
-  <si>
-    <t>介绍LAMP环境各个组件之间的关系以及它们各自在LAMP环境中担当的职能和特性。</t>
-  </si>
-  <si>
-    <t>Ubuntu基础知识</t>
-  </si>
-  <si>
-    <t>通过SSH终端远程连接Ubuntu</t>
-  </si>
-  <si>
-    <t>介绍如何通过远程终端工具管理和操作ubuntu服务器</t>
-  </si>
-  <si>
-    <t>Ubuntu系统管理员权限及root介绍</t>
-  </si>
-  <si>
-    <t>介绍ubuntu官方建议的root账户安全管理模式以及系统的各个之间的关系，从服务器运维角度介绍合理的管理员部属方案</t>
-  </si>
-  <si>
-    <t>su 与 sudo 命令详解</t>
-  </si>
-  <si>
-    <t>通过示例演示以及与现实生活中的事物形象对比讲解su命令和sudo命令各自的功能和两者之间的关系，介绍apt-get软件安装工具的简单使用方法。</t>
-  </si>
-  <si>
-    <t>apt-get 软件安装工具介绍</t>
-  </si>
-  <si>
-    <t>几个常用的Linux命令</t>
-  </si>
-  <si>
-    <t>简单引导学生自学几个Linux操作中最基本的几个命令 ls、ll、cd、cp、mv、rm、mkdir、rmdir、chmod、ln、passwd等</t>
-  </si>
-  <si>
-    <t>搭建LAMP环境</t>
-  </si>
-  <si>
-    <t>安装Apache、MySQL、PHP</t>
-  </si>
-  <si>
-    <t>从无到有的在UbuntuServer服务器操作系统下搭建LAMP环境、对所安装环境的正确性检测以及SSH方式管理服务器文件</t>
-  </si>
-  <si>
-    <t>为PHP添加常用的扩展</t>
-  </si>
-  <si>
-    <t>创建phpinfo服务器探针</t>
-  </si>
-  <si>
-    <t>通过SSH管理服务器文件</t>
-  </si>
-  <si>
-    <t>LAMP环境配置与优化</t>
-  </si>
-  <si>
-    <t>LAMP环境配置文件详解</t>
-  </si>
-  <si>
-    <t>配置Apache虚拟主机、安装PhpMyAdmin、开启数据库远程维护等常见的服务器维护技能。</t>
-  </si>
-  <si>
-    <t>为Apache配置虚拟主机</t>
-  </si>
-  <si>
-    <t>迁移MySQL的数据存储目录</t>
-  </si>
-  <si>
-    <t>安装phpMyAdmin</t>
-  </si>
-  <si>
-    <t>开启MySQL的remote access</t>
-  </si>
-  <si>
-    <t>扩展知识介绍</t>
-  </si>
-  <si>
-    <t>LAMP的集群架构介绍</t>
-  </si>
-  <si>
-    <t>简单的介绍LAMP集群服务器网络拓扑结构，加深对LAMP各组件角色的理解以及随着技术的不断发展LAMP有了一些新的含义</t>
-  </si>
-  <si>
-    <t>LAMP的含义</t>
-  </si>
-  <si>
     <t>课程总结</t>
   </si>
   <si>
     <t>总结课程</t>
-  </si>
-  <si>
-    <t>通过本课程，我们学习和理解了LAMP环境在ubuntuServer操作系统下的搭建。结合实际的例子，我们学习了LAMP环境常用的一些维护与配置的实际实现方式。</t>
   </si>
   <si>
     <t>课程时长合计</t>
@@ -214,6 +109,94 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍课程目标和学习内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过详细的讲解，让同学在不会canvas的情况下，也能画出时钟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何知识</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos,sin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度和弧度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍什么时候cos、sin，我们需要它来作什么</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解角度和弧度的关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出静态时钟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出时钟的外圆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出时钟的小时数字和秒针对应的点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出时针</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出分针</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出秒针</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出时钟的整体外观</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出时针、分针、秒针</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出动态时钟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出时钟最外层的圆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化时针的显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟每秒跳动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时钟的动画效果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟自适应大小</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过本课程，我们学习和理解了canvas的基础运用，可以入门canvas，同时画出自己想要的任何时钟样式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +315,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,12 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -732,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="103.5">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="34.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -743,404 +735,280 @@
         <f>SUM(E2)</f>
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34.5">
-      <c r="A3" s="12">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17">
         <f>SUM(E3:E4)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17">
         <f>SUM(E5:E9)</f>
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69.75" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="53.25" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>19</v>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="89.25" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14">
-        <f>SUM(E10:E13)</f>
+      <c r="B10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="19">
+        <f>SUM(E10:E12)</f>
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="51.75">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" s="12">
-        <v>5</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12">
-        <f>SUM(E14:E18)</f>
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9">
+        <f>SUM(E2:E13)</f>
+        <v>54</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A19" s="12">
-        <v>6</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUM(E19:E20)</f>
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="69">
-      <c r="A21" s="4">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="8">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9">
-        <f>SUM(E2:E21)</f>
-        <v>60</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A23:F29"/>
-    <mergeCell ref="A22:D22"/>
+  <mergeCells count="13">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A15:F21"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>